--- a/html/EOJ-Systemer_excel.XLSX
+++ b/html/EOJ-Systemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC5A324-63B3-4D4A-BFE6-97EF9BD53E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593F874-C4B8-4D74-8A11-5A6D9B6FCC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="EOJ_Systemer">'Opdateret d. 12-05-2025'!$A$1:$I$65</definedName>
+    <definedName name="EOJ_Systemer">'Opdateret d. 16-05-2025'!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -76,7 +76,7 @@
     <t>CareCommunication</t>
   </si>
   <si>
-    <t>CareCommunication (4.0.0)</t>
+    <t>CareCommunication (4.0)</t>
   </si>
   <si>
     <t>Care Plan</t>

--- a/html/EOJ-Systemer_excel.XLSX
+++ b/html/EOJ-Systemer_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593F874-C4B8-4D74-8A11-5A6D9B6FCC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC1026-E0D1-463D-9728-B25DDBA7003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="EOJ_Systemer">'Opdateret d. 16-05-2025'!$A$1:$I$65</definedName>
+    <definedName name="EOJ_Systemer">'Opdateret d. 02-12-2025'!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="104">
   <si>
     <t>Standard</t>
   </si>
@@ -729,9 +729,6 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -772,9 +769,6 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1148,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,9 +1548,6 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
         <v>12</v>
       </c>
     </row>

--- a/html/EOJ-Systemer_excel.XLSX
+++ b/html/EOJ-Systemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC1026-E0D1-463D-9728-B25DDBA7003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F491FCA-E30C-4D3B-AD3B-E4EB3C6FD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/EOJ-Systemer_excel.XLSX
+++ b/html/EOJ-Systemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F491FCA-E30C-4D3B-AD3B-E4EB3C6FD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD843661-F481-4CA7-A504-01404F995932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="EOJ_Systemer">'Opdateret d. 02-12-2025'!$A$1:$I$65</definedName>
+    <definedName name="EOJ_Systemer">'Opdateret d. 05-12-2025'!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -37,7 +37,7 @@
     <t>Cura (Systematic)</t>
   </si>
   <si>
-    <t>Modulus (Netcompany)</t>
+    <t>Modulus Social (Netcompany)</t>
   </si>
   <si>
     <t>Nexus (KMD)</t>
@@ -682,9 +682,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -770,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -787,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -846,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -934,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -985,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>

--- a/html/EOJ-Systemer_excel.XLSX
+++ b/html/EOJ-Systemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD843661-F481-4CA7-A504-01404F995932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CF6D2D-4389-4337-B94E-8D96223F1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="EOJ_Systemer">'Opdateret d. 05-12-2025'!$A$1:$I$65</definedName>
+    <definedName name="EOJ_Systemer">'Opdateret d. 19-12-2025'!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -682,9 +682,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -770,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -787,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -846,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -934,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -985,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
